--- a/data/league_data/spain/20/spain_shot_creation.xlsx
+++ b/data/league_data/spain/20/spain_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE16A516-048A-3D46-92BD-DF2096825529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1C6258-4E8A-3B4C-8A7B-BF61030DE880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="582">
   <si>
     <t>SCA</t>
   </si>
@@ -1760,6 +1760,12 @@
   </si>
   <si>
     <t>Manuel Garrido</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
@@ -2623,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6360,7 +6366,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>581</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
@@ -33000,7 +33006,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>271</v>
+        <v>580</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>19</v>

--- a/data/league_data/spain/20/spain_shot_creation.xlsx
+++ b/data/league_data/spain/20/spain_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1C6258-4E8A-3B4C-8A7B-BF61030DE880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4DA289-5723-8E47-85F5-B0F2E68EFD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="583">
   <si>
     <t>SCA</t>
   </si>
@@ -1072,9 +1072,6 @@
     <t>Tomás Pina Isla</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Jaume Doménech</t>
   </si>
   <si>
@@ -1766,6 +1763,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
   </si>
 </sst>
 </file>
@@ -2629,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6366,7 +6369,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
@@ -22350,7 +22353,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>350</v>
+        <v>582</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>67</v>
@@ -22424,7 +22427,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>19</v>
@@ -22498,7 +22501,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>19</v>
@@ -22572,7 +22575,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>67</v>
@@ -22646,7 +22649,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>19</v>
@@ -22720,7 +22723,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>19</v>
@@ -22794,7 +22797,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>67</v>
@@ -22868,7 +22871,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>99</v>
@@ -22942,7 +22945,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>106</v>
@@ -23016,7 +23019,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>57</v>
@@ -23090,7 +23093,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>19</v>
@@ -23164,7 +23167,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>19</v>
@@ -23238,7 +23241,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>335</v>
@@ -23312,7 +23315,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>19</v>
@@ -23386,13 +23389,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>118</v>
@@ -23460,7 +23463,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>19</v>
@@ -23534,7 +23537,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>106</v>
@@ -23608,7 +23611,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>52</v>
@@ -23682,7 +23685,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>19</v>
@@ -23756,7 +23759,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>19</v>
@@ -23830,7 +23833,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>106</v>
@@ -23904,7 +23907,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>19</v>
@@ -23978,7 +23981,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>19</v>
@@ -24052,7 +24055,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>19</v>
@@ -24126,7 +24129,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>67</v>
@@ -24200,7 +24203,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>67</v>
@@ -24274,7 +24277,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>19</v>
@@ -24348,7 +24351,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>75</v>
@@ -24422,7 +24425,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>19</v>
@@ -24496,7 +24499,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>380</v>
+        <v>581</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>19</v>
@@ -24570,7 +24573,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>102</v>
@@ -24644,7 +24647,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>106</v>
@@ -24718,7 +24721,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>60</v>
@@ -24792,7 +24795,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>19</v>
@@ -24866,7 +24869,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>106</v>
@@ -24940,10 +24943,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>79</v>
@@ -25014,7 +25017,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>19</v>
@@ -25088,7 +25091,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>19</v>
@@ -25162,7 +25165,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>200</v>
@@ -25236,7 +25239,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>75</v>
@@ -25310,7 +25313,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>19</v>
@@ -25384,7 +25387,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>19</v>
@@ -25458,7 +25461,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>19</v>
@@ -25532,7 +25535,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>19</v>
@@ -25606,13 +25609,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>41</v>
@@ -25680,7 +25683,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>67</v>
@@ -25754,7 +25757,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>106</v>
@@ -25828,7 +25831,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>19</v>
@@ -25902,7 +25905,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>19</v>
@@ -25976,7 +25979,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>67</v>
@@ -26124,7 +26127,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>19</v>
@@ -26198,7 +26201,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>19</v>
@@ -26272,7 +26275,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>147</v>
@@ -26346,7 +26349,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>19</v>
@@ -26420,7 +26423,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>19</v>
@@ -26494,7 +26497,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>19</v>
@@ -26568,7 +26571,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>19</v>
@@ -26642,7 +26645,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>60</v>
@@ -26716,7 +26719,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>19</v>
@@ -26790,7 +26793,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>106</v>
@@ -26864,7 +26867,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>19</v>
@@ -26938,10 +26941,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>49</v>
@@ -27012,7 +27015,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>19</v>
@@ -27086,7 +27089,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>60</v>
@@ -27160,7 +27163,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>19</v>
@@ -27234,7 +27237,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>57</v>
@@ -27308,7 +27311,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>19</v>
@@ -27382,7 +27385,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>127</v>
@@ -27456,7 +27459,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>19</v>
@@ -27530,7 +27533,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>19</v>
@@ -27604,7 +27607,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>19</v>
@@ -27678,7 +27681,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>65</v>
@@ -27752,7 +27755,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>19</v>
@@ -27826,7 +27829,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>19</v>
@@ -27900,7 +27903,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>19</v>
@@ -27974,7 +27977,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>57</v>
@@ -28048,7 +28051,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>19</v>
@@ -28122,7 +28125,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>19</v>
@@ -28196,7 +28199,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>65</v>
@@ -28270,7 +28273,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>52</v>
@@ -28344,7 +28347,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>19</v>
@@ -28418,7 +28421,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>19</v>
@@ -28566,7 +28569,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>19</v>
@@ -28640,7 +28643,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>52</v>
@@ -28714,7 +28717,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>19</v>
@@ -28788,7 +28791,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>19</v>
@@ -28862,7 +28865,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>60</v>
@@ -28936,7 +28939,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>19</v>
@@ -29010,10 +29013,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>26</v>
@@ -29084,10 +29087,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>29</v>
@@ -29158,7 +29161,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>19</v>
@@ -29232,7 +29235,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>19</v>
@@ -29306,7 +29309,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>19</v>
@@ -29380,7 +29383,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>19</v>
@@ -29454,7 +29457,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>19</v>
@@ -29528,7 +29531,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>19</v>
@@ -29602,7 +29605,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>19</v>
@@ -29676,7 +29679,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>121</v>
@@ -29750,7 +29753,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>19</v>
@@ -29824,7 +29827,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>19</v>
@@ -29898,7 +29901,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>200</v>
@@ -29972,7 +29975,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>19</v>
@@ -30046,7 +30049,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>19</v>
@@ -30120,7 +30123,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>60</v>
@@ -30194,7 +30197,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>57</v>
@@ -30268,7 +30271,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>19</v>
@@ -30342,7 +30345,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>75</v>
@@ -30416,7 +30419,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>19</v>
@@ -30490,13 +30493,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>82</v>
@@ -30564,7 +30567,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>202</v>
@@ -30638,7 +30641,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>67</v>
@@ -30712,7 +30715,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>237</v>
@@ -30786,7 +30789,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>106</v>
@@ -30860,7 +30863,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>19</v>
@@ -30934,7 +30937,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>19</v>
@@ -31008,7 +31011,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>19</v>
@@ -31082,7 +31085,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>65</v>
@@ -31156,7 +31159,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>19</v>
@@ -31230,7 +31233,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>19</v>
@@ -31304,13 +31307,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>82</v>
@@ -31378,7 +31381,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>214</v>
@@ -31452,7 +31455,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>19</v>
@@ -31526,7 +31529,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>19</v>
@@ -31600,7 +31603,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>19</v>
@@ -31674,7 +31677,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>19</v>
@@ -31748,7 +31751,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>335</v>
@@ -31822,7 +31825,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>19</v>
@@ -31896,7 +31899,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>19</v>
@@ -31970,10 +31973,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>26</v>
@@ -32044,7 +32047,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>19</v>
@@ -32118,7 +32121,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>19</v>
@@ -32192,7 +32195,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>19</v>
@@ -32266,7 +32269,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>19</v>
@@ -32340,7 +32343,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>19</v>
@@ -32414,7 +32417,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>19</v>
@@ -32488,7 +32491,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>19</v>
@@ -32562,7 +32565,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>19</v>
@@ -32636,10 +32639,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>26</v>
@@ -32710,7 +32713,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>106</v>
@@ -32784,7 +32787,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>102</v>
@@ -32858,10 +32861,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>49</v>
@@ -32932,7 +32935,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>19</v>
@@ -33006,7 +33009,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>19</v>
@@ -33080,7 +33083,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>52</v>
@@ -33154,7 +33157,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>57</v>
@@ -33228,7 +33231,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>19</v>
@@ -33302,7 +33305,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>200</v>
@@ -33376,7 +33379,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>19</v>
@@ -33524,7 +33527,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>19</v>
@@ -33598,7 +33601,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>335</v>
@@ -33672,7 +33675,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>19</v>
@@ -33746,7 +33749,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>19</v>
@@ -33820,7 +33823,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>19</v>
@@ -33894,7 +33897,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>19</v>
@@ -33968,13 +33971,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>30</v>
@@ -34042,7 +34045,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>19</v>
@@ -34116,7 +34119,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>60</v>
@@ -34190,13 +34193,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>58</v>
@@ -34264,7 +34267,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>60</v>
@@ -34338,7 +34341,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>19</v>
@@ -34412,10 +34415,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>79</v>
@@ -34486,7 +34489,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>19</v>
@@ -34560,7 +34563,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>121</v>
@@ -34634,7 +34637,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>102</v>
@@ -34708,7 +34711,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>19</v>
@@ -34782,7 +34785,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>19</v>
@@ -34856,7 +34859,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>19</v>
@@ -34930,7 +34933,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>19</v>
@@ -35004,7 +35007,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>222</v>
@@ -35078,7 +35081,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>19</v>
@@ -35152,7 +35155,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>19</v>
@@ -35226,7 +35229,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>19</v>
@@ -35300,7 +35303,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>19</v>
@@ -35374,7 +35377,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>19</v>
@@ -35448,7 +35451,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>19</v>
@@ -35522,7 +35525,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>19</v>
@@ -35596,7 +35599,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>19</v>
@@ -35670,7 +35673,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>65</v>
@@ -35744,7 +35747,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>60</v>
@@ -35818,7 +35821,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>19</v>
@@ -35892,7 +35895,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>19</v>
@@ -35966,7 +35969,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>19</v>
@@ -36040,7 +36043,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>57</v>
@@ -36114,7 +36117,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>19</v>
@@ -36188,7 +36191,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>19</v>
@@ -36262,7 +36265,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>19</v>
@@ -36336,7 +36339,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>19</v>
@@ -36410,7 +36413,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>19</v>
@@ -36484,7 +36487,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>19</v>
@@ -36632,7 +36635,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>19</v>
@@ -36706,7 +36709,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>19</v>
@@ -36780,7 +36783,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>65</v>
@@ -36854,13 +36857,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>58</v>
@@ -36928,7 +36931,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>19</v>
@@ -37002,7 +37005,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>19</v>
@@ -37076,7 +37079,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>200</v>
@@ -37150,7 +37153,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>19</v>
@@ -37224,7 +37227,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>19</v>
@@ -37298,7 +37301,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>19</v>
@@ -37372,7 +37375,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>19</v>
@@ -37446,7 +37449,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>106</v>
@@ -37520,7 +37523,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>67</v>
@@ -37594,7 +37597,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>147</v>
@@ -37668,7 +37671,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>19</v>
@@ -37742,7 +37745,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>335</v>
@@ -37890,7 +37893,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>19</v>
@@ -37964,7 +37967,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>19</v>
@@ -38038,7 +38041,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>19</v>
@@ -38112,7 +38115,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>335</v>
@@ -38186,7 +38189,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>19</v>
@@ -38260,7 +38263,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>19</v>
@@ -38334,7 +38337,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>67</v>
@@ -38408,7 +38411,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>19</v>
@@ -38482,7 +38485,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>19</v>
@@ -38556,7 +38559,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>19</v>
@@ -38630,7 +38633,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>19</v>
@@ -38704,7 +38707,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>19</v>
@@ -38778,7 +38781,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>19</v>
@@ -38852,7 +38855,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>19</v>
@@ -38926,7 +38929,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>60</v>
@@ -39000,7 +39003,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>67</v>
@@ -39074,7 +39077,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>19</v>
@@ -39148,10 +39151,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>47</v>
@@ -39222,7 +39225,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>19</v>
@@ -39296,7 +39299,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>19</v>
@@ -39370,7 +39373,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>57</v>
@@ -39444,7 +39447,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>19</v>
@@ -39518,7 +39521,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>19</v>
@@ -39592,7 +39595,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>19</v>

--- a/data/league_data/spain/20/spain_shot_creation.xlsx
+++ b/data/league_data/spain/20/spain_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4DA289-5723-8E47-85F5-B0F2E68EFD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A2B741-96FC-F348-ACAD-3DB8FD94F1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,9 +352,6 @@
     <t>Yuri Berchiche</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Raphaël Varane</t>
   </si>
   <si>
@@ -1769,6 +1766,9 @@
   </si>
   <si>
     <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2632,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6369,7 +6369,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
@@ -6517,7 +6517,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>582</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>67</v>
@@ -6591,7 +6591,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>60</v>
@@ -6665,7 +6665,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
@@ -6739,7 +6739,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>67</v>
@@ -6813,7 +6813,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
@@ -6887,7 +6887,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
@@ -6896,7 +6896,7 @@
         <v>29</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F58" s="2">
         <v>29</v>
@@ -6961,7 +6961,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>106</v>
@@ -6970,7 +6970,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F59" s="2">
         <v>25</v>
@@ -7035,7 +7035,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>19</v>
@@ -7109,10 +7109,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>29</v>
@@ -7183,7 +7183,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>19</v>
@@ -7257,7 +7257,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>19</v>
@@ -7331,7 +7331,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>106</v>
@@ -7405,7 +7405,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
@@ -7479,13 +7479,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>84</v>
@@ -7553,7 +7553,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>99</v>
@@ -7627,7 +7627,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>19</v>
@@ -7701,7 +7701,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
@@ -7775,7 +7775,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>19</v>
@@ -7784,7 +7784,7 @@
         <v>26</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F70" s="2">
         <v>27</v>
@@ -7849,7 +7849,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
@@ -7858,7 +7858,7 @@
         <v>26</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F71" s="2">
         <v>23</v>
@@ -7923,7 +7923,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
@@ -7997,7 +7997,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>67</v>
@@ -8071,7 +8071,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>19</v>
@@ -8145,7 +8145,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>40</v>
@@ -8219,7 +8219,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
@@ -8228,7 +8228,7 @@
         <v>26</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2">
         <v>29</v>
@@ -8293,7 +8293,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>19</v>
@@ -8367,7 +8367,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>60</v>
@@ -8441,7 +8441,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
@@ -8515,10 +8515,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>26</v>
@@ -8589,7 +8589,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>57</v>
@@ -8663,7 +8663,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>65</v>
@@ -8737,10 +8737,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>47</v>
@@ -8811,10 +8811,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>26</v>
@@ -8885,7 +8885,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
@@ -8959,7 +8959,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>19</v>
@@ -9033,7 +9033,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>60</v>
@@ -9107,7 +9107,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>99</v>
@@ -9181,7 +9181,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
@@ -9255,10 +9255,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>47</v>
@@ -9329,13 +9329,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>50</v>
@@ -9403,7 +9403,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
@@ -9477,7 +9477,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
@@ -9551,7 +9551,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>99</v>
@@ -9625,7 +9625,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
@@ -9699,7 +9699,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
@@ -9708,7 +9708,7 @@
         <v>29</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F96" s="2">
         <v>30</v>
@@ -9773,7 +9773,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
@@ -9847,7 +9847,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>19</v>
@@ -9921,7 +9921,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>106</v>
@@ -9995,13 +9995,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>43</v>
@@ -10069,7 +10069,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>19</v>
@@ -10143,7 +10143,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>19</v>
@@ -10152,7 +10152,7 @@
         <v>20</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F102" s="2">
         <v>35</v>
@@ -10217,7 +10217,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>19</v>
@@ -10291,7 +10291,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>60</v>
@@ -10365,13 +10365,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>21</v>
@@ -10439,7 +10439,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>60</v>
@@ -10513,7 +10513,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>67</v>
@@ -10587,7 +10587,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
@@ -10661,10 +10661,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>49</v>
@@ -10735,7 +10735,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>19</v>
@@ -10809,7 +10809,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
@@ -10883,7 +10883,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
@@ -10957,10 +10957,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>47</v>
@@ -11031,7 +11031,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>19</v>
@@ -11105,7 +11105,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>19</v>
@@ -11114,7 +11114,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F115" s="2">
         <v>27</v>
@@ -11179,7 +11179,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
@@ -11253,13 +11253,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>41</v>
@@ -11327,10 +11327,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>29</v>
@@ -11401,7 +11401,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
@@ -11475,7 +11475,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
@@ -11549,7 +11549,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>19</v>
@@ -11623,7 +11623,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>19</v>
@@ -11697,7 +11697,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
@@ -11771,7 +11771,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>60</v>
@@ -11845,10 +11845,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>49</v>
@@ -11919,7 +11919,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>19</v>
@@ -11993,7 +11993,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>19</v>
@@ -12067,7 +12067,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>19</v>
@@ -12141,10 +12141,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>26</v>
@@ -12215,10 +12215,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>47</v>
@@ -12289,7 +12289,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
@@ -12363,7 +12363,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
@@ -12437,7 +12437,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>19</v>
@@ -12511,7 +12511,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>52</v>
@@ -12585,7 +12585,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
@@ -12659,7 +12659,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>19</v>
@@ -12733,7 +12733,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>19</v>
@@ -12807,7 +12807,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>19</v>
@@ -12816,7 +12816,7 @@
         <v>47</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2">
         <v>30</v>
@@ -12881,7 +12881,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>19</v>
@@ -12955,7 +12955,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>19</v>
@@ -13029,10 +13029,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>49</v>
@@ -13103,7 +13103,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>19</v>
@@ -13177,7 +13177,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
@@ -13186,7 +13186,7 @@
         <v>47</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F143" s="2">
         <v>29</v>
@@ -13251,7 +13251,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>65</v>
@@ -13325,7 +13325,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>19</v>
@@ -13399,10 +13399,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>79</v>
@@ -13473,7 +13473,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>67</v>
@@ -13482,7 +13482,7 @@
         <v>26</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F147" s="2">
         <v>25</v>
@@ -13547,10 +13547,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>47</v>
@@ -13621,10 +13621,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>47</v>
@@ -13695,7 +13695,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>67</v>
@@ -13769,7 +13769,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>67</v>
@@ -13843,7 +13843,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>19</v>
@@ -13852,7 +13852,7 @@
         <v>26</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F152" s="2">
         <v>23</v>
@@ -13917,10 +13917,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>20</v>
@@ -13991,7 +13991,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>19</v>
@@ -14065,7 +14065,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>57</v>
@@ -14139,7 +14139,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>57</v>
@@ -14213,7 +14213,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>19</v>
@@ -14287,7 +14287,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>106</v>
@@ -14361,7 +14361,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>19</v>
@@ -14435,10 +14435,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>29</v>
@@ -14509,10 +14509,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>49</v>
@@ -14583,7 +14583,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>102</v>
@@ -14657,7 +14657,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>19</v>
@@ -14731,7 +14731,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>19</v>
@@ -14740,7 +14740,7 @@
         <v>47</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F164" s="2">
         <v>30</v>
@@ -14805,7 +14805,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>19</v>
@@ -14879,7 +14879,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>67</v>
@@ -14953,16 +14953,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F167" s="2">
         <v>22</v>
@@ -15027,10 +15027,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>47</v>
@@ -15101,7 +15101,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>65</v>
@@ -15175,7 +15175,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>19</v>
@@ -15249,7 +15249,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>52</v>
@@ -15323,10 +15323,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>26</v>
@@ -15397,10 +15397,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>26</v>
@@ -15471,7 +15471,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>19</v>
@@ -15480,7 +15480,7 @@
         <v>47</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F174" s="2">
         <v>33</v>
@@ -15545,10 +15545,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>47</v>
@@ -15619,7 +15619,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>19</v>
@@ -15693,10 +15693,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>49</v>
@@ -15767,7 +15767,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>19</v>
@@ -15841,7 +15841,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>19</v>
@@ -15915,16 +15915,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F180" s="2">
         <v>28</v>
@@ -15989,16 +15989,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F181" s="2">
         <v>25</v>
@@ -16063,7 +16063,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>19</v>
@@ -16137,7 +16137,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>19</v>
@@ -16211,7 +16211,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>19</v>
@@ -16220,7 +16220,7 @@
         <v>49</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F184" s="2">
         <v>21</v>
@@ -16285,16 +16285,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F185" s="2">
         <v>30</v>
@@ -16359,7 +16359,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>60</v>
@@ -16433,7 +16433,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>19</v>
@@ -16507,7 +16507,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>65</v>
@@ -16581,7 +16581,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>19</v>
@@ -16655,7 +16655,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>19</v>
@@ -16664,7 +16664,7 @@
         <v>26</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F190" s="2">
         <v>29</v>
@@ -16729,7 +16729,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>19</v>
@@ -16803,7 +16803,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>19</v>
@@ -16877,7 +16877,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>19</v>
@@ -16951,7 +16951,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>65</v>
@@ -17025,16 +17025,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F195" s="2">
         <v>25</v>
@@ -17099,7 +17099,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>19</v>
@@ -17173,16 +17173,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F197" s="2">
         <v>30</v>
@@ -17247,7 +17247,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>19</v>
@@ -17321,7 +17321,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>19</v>
@@ -17395,7 +17395,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>19</v>
@@ -17469,7 +17469,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>99</v>
@@ -17543,7 +17543,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>106</v>
@@ -17617,10 +17617,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>47</v>
@@ -17691,7 +17691,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>60</v>
@@ -17765,7 +17765,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>19</v>
@@ -17839,7 +17839,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>19</v>
@@ -17913,7 +17913,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>19</v>
@@ -17987,7 +17987,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>19</v>
@@ -18061,7 +18061,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>65</v>
@@ -18135,7 +18135,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>19</v>
@@ -18209,7 +18209,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>57</v>
@@ -18283,10 +18283,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>79</v>
@@ -18357,7 +18357,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>19</v>
@@ -18431,7 +18431,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>19</v>
@@ -18505,7 +18505,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>106</v>
@@ -18579,10 +18579,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>47</v>
@@ -18653,7 +18653,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>19</v>
@@ -18727,7 +18727,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>19</v>
@@ -18801,7 +18801,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>19</v>
@@ -18810,7 +18810,7 @@
         <v>47</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F219" s="2">
         <v>25</v>
@@ -18875,7 +18875,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>19</v>
@@ -18949,13 +18949,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>53</v>
@@ -19023,7 +19023,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>106</v>
@@ -19097,10 +19097,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>47</v>
@@ -19171,7 +19171,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>19</v>
@@ -19245,7 +19245,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>19</v>
@@ -19319,7 +19319,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>60</v>
@@ -19393,7 +19393,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>19</v>
@@ -19467,7 +19467,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>19</v>
@@ -19541,7 +19541,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>19</v>
@@ -19615,7 +19615,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>19</v>
@@ -19624,7 +19624,7 @@
         <v>47</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F230" s="2">
         <v>28</v>
@@ -19689,10 +19689,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>47</v>
@@ -19763,7 +19763,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>19</v>
@@ -19837,7 +19837,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>65</v>
@@ -19911,7 +19911,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>65</v>
@@ -19985,10 +19985,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>26</v>
@@ -20059,7 +20059,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>19</v>
@@ -20133,10 +20133,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>47</v>
@@ -20207,7 +20207,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>60</v>
@@ -20281,10 +20281,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>29</v>
@@ -20355,7 +20355,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>19</v>
@@ -20429,7 +20429,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>19</v>
@@ -20503,10 +20503,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>79</v>
@@ -20577,7 +20577,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>19</v>
@@ -20651,7 +20651,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>19</v>
@@ -20725,7 +20725,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>19</v>
@@ -20799,7 +20799,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>19</v>
@@ -20873,7 +20873,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>19</v>
@@ -20947,7 +20947,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>60</v>
@@ -21021,7 +21021,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>106</v>
@@ -21095,7 +21095,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>19</v>
@@ -21169,16 +21169,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F251" s="2">
         <v>22</v>
@@ -21243,10 +21243,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>26</v>
@@ -21317,7 +21317,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>19</v>
@@ -21391,7 +21391,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>19</v>
@@ -21465,16 +21465,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F255" s="2">
         <v>22</v>
@@ -21539,7 +21539,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>45</v>
@@ -21613,7 +21613,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>19</v>
@@ -21687,7 +21687,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>19</v>
@@ -21761,7 +21761,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>67</v>
@@ -21835,7 +21835,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>19</v>
@@ -21909,10 +21909,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>47</v>
@@ -21983,7 +21983,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>19</v>
@@ -22057,7 +22057,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>19</v>
@@ -22131,7 +22131,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>19</v>
@@ -22205,7 +22205,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>19</v>
@@ -22279,7 +22279,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>19</v>
@@ -22288,7 +22288,7 @@
         <v>47</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F266" s="2">
         <v>31</v>
@@ -22353,7 +22353,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>67</v>
@@ -22427,7 +22427,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>19</v>
@@ -22501,7 +22501,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>19</v>
@@ -22575,7 +22575,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>67</v>
@@ -22649,7 +22649,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>19</v>
@@ -22723,7 +22723,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>19</v>
@@ -22732,7 +22732,7 @@
         <v>47</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F272" s="2">
         <v>25</v>
@@ -22797,7 +22797,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>67</v>
@@ -22871,7 +22871,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>99</v>
@@ -22880,7 +22880,7 @@
         <v>47</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F274" s="2">
         <v>29</v>
@@ -22945,7 +22945,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>106</v>
@@ -23019,7 +23019,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>57</v>
@@ -23093,7 +23093,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>19</v>
@@ -23167,7 +23167,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>19</v>
@@ -23241,10 +23241,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>29</v>
@@ -23315,7 +23315,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>19</v>
@@ -23389,16 +23389,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F281" s="2">
         <v>23</v>
@@ -23463,7 +23463,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>19</v>
@@ -23537,7 +23537,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>106</v>
@@ -23546,7 +23546,7 @@
         <v>29</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F283" s="2">
         <v>28</v>
@@ -23611,7 +23611,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>52</v>
@@ -23685,7 +23685,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>19</v>
@@ -23759,7 +23759,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>19</v>
@@ -23833,7 +23833,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>106</v>
@@ -23842,7 +23842,7 @@
         <v>26</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F287" s="2">
         <v>25</v>
@@ -23907,7 +23907,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>19</v>
@@ -23981,7 +23981,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>19</v>
@@ -24055,7 +24055,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>19</v>
@@ -24129,7 +24129,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>67</v>
@@ -24203,7 +24203,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>67</v>
@@ -24277,7 +24277,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>19</v>
@@ -24351,7 +24351,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>75</v>
@@ -24425,7 +24425,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>19</v>
@@ -24499,7 +24499,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>19</v>
@@ -24573,7 +24573,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>102</v>
@@ -24647,7 +24647,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>106</v>
@@ -24721,7 +24721,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>60</v>
@@ -24795,7 +24795,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>19</v>
@@ -24869,7 +24869,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>106</v>
@@ -24943,10 +24943,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>79</v>
@@ -25017,13 +25017,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>43</v>
@@ -25091,7 +25091,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>19</v>
@@ -25100,7 +25100,7 @@
         <v>47</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F304" s="2">
         <v>26</v>
@@ -25165,10 +25165,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>26</v>
@@ -25239,7 +25239,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>75</v>
@@ -25313,7 +25313,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>19</v>
@@ -25387,7 +25387,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>19</v>
@@ -25461,7 +25461,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>19</v>
@@ -25535,13 +25535,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>55</v>
@@ -25609,13 +25609,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>41</v>
@@ -25683,7 +25683,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>67</v>
@@ -25757,7 +25757,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>106</v>
@@ -25831,7 +25831,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>19</v>
@@ -25905,7 +25905,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>19</v>
@@ -25979,7 +25979,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>67</v>
@@ -26059,7 +26059,7 @@
         <v>19</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>55</v>
@@ -26127,7 +26127,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>19</v>
@@ -26201,7 +26201,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>19</v>
@@ -26210,7 +26210,7 @@
         <v>20</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F319" s="2">
         <v>21</v>
@@ -26275,10 +26275,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>29</v>
@@ -26349,7 +26349,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>19</v>
@@ -26423,7 +26423,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>19</v>
@@ -26497,7 +26497,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>19</v>
@@ -26506,7 +26506,7 @@
         <v>26</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F323" s="2">
         <v>23</v>
@@ -26571,7 +26571,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>19</v>
@@ -26645,7 +26645,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>60</v>
@@ -26719,7 +26719,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>19</v>
@@ -26793,7 +26793,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>106</v>
@@ -26867,7 +26867,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>19</v>
@@ -26941,10 +26941,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>49</v>
@@ -27015,7 +27015,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>19</v>
@@ -27089,7 +27089,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>60</v>
@@ -27163,7 +27163,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>19</v>
@@ -27237,7 +27237,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>57</v>
@@ -27311,7 +27311,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>19</v>
@@ -27385,10 +27385,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>79</v>
@@ -27459,7 +27459,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>19</v>
@@ -27533,7 +27533,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>19</v>
@@ -27607,7 +27607,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>19</v>
@@ -27681,7 +27681,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>65</v>
@@ -27755,7 +27755,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>19</v>
@@ -27829,7 +27829,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>19</v>
@@ -27838,7 +27838,7 @@
         <v>49</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F341" s="2">
         <v>29</v>
@@ -27903,7 +27903,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>19</v>
@@ -27912,7 +27912,7 @@
         <v>26</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F342" s="2">
         <v>22</v>
@@ -27977,7 +27977,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>57</v>
@@ -28051,7 +28051,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>19</v>
@@ -28125,7 +28125,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>19</v>
@@ -28134,7 +28134,7 @@
         <v>49</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F345" s="2">
         <v>29</v>
@@ -28199,7 +28199,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>65</v>
@@ -28273,7 +28273,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>52</v>
@@ -28347,7 +28347,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>19</v>
@@ -28356,7 +28356,7 @@
         <v>29</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F348" s="2">
         <v>29</v>
@@ -28421,7 +28421,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>19</v>
@@ -28495,10 +28495,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>29</v>
@@ -28569,7 +28569,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>19</v>
@@ -28578,7 +28578,7 @@
         <v>20</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F351" s="2">
         <v>33</v>
@@ -28643,7 +28643,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>52</v>
@@ -28652,7 +28652,7 @@
         <v>47</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F352" s="2">
         <v>30</v>
@@ -28717,7 +28717,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>19</v>
@@ -28791,7 +28791,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>19</v>
@@ -28865,7 +28865,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>60</v>
@@ -28874,7 +28874,7 @@
         <v>47</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F355" s="2">
         <v>26</v>
@@ -28939,7 +28939,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>19</v>
@@ -29013,10 +29013,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>26</v>
@@ -29087,10 +29087,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>29</v>
@@ -29161,7 +29161,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>19</v>
@@ -29235,13 +29235,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>55</v>
@@ -29309,7 +29309,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>19</v>
@@ -29383,7 +29383,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>19</v>
@@ -29457,7 +29457,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>19</v>
@@ -29531,7 +29531,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>19</v>
@@ -29605,7 +29605,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>19</v>
@@ -29679,10 +29679,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>47</v>
@@ -29753,7 +29753,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>19</v>
@@ -29827,7 +29827,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>19</v>
@@ -29901,10 +29901,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>79</v>
@@ -29975,7 +29975,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>19</v>
@@ -30049,7 +30049,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>19</v>
@@ -30123,7 +30123,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>60</v>
@@ -30197,7 +30197,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>57</v>
@@ -30271,7 +30271,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>19</v>
@@ -30345,7 +30345,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>75</v>
@@ -30419,7 +30419,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>19</v>
@@ -30493,13 +30493,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>82</v>
@@ -30567,10 +30567,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>47</v>
@@ -30641,7 +30641,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>67</v>
@@ -30715,10 +30715,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>47</v>
@@ -30789,7 +30789,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>106</v>
@@ -30863,7 +30863,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>19</v>
@@ -30872,7 +30872,7 @@
         <v>49</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F382" s="2">
         <v>18</v>
@@ -30937,7 +30937,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>19</v>
@@ -31011,7 +31011,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>19</v>
@@ -31020,7 +31020,7 @@
         <v>49</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F384" s="2">
         <v>18</v>
@@ -31085,7 +31085,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>65</v>
@@ -31159,7 +31159,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>19</v>
@@ -31233,7 +31233,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>19</v>
@@ -31307,13 +31307,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>82</v>
@@ -31381,16 +31381,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F389" s="2">
         <v>25</v>
@@ -31455,7 +31455,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>19</v>
@@ -31529,7 +31529,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>19</v>
@@ -31603,7 +31603,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>19</v>
@@ -31677,7 +31677,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>19</v>
@@ -31751,10 +31751,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>20</v>
@@ -31825,7 +31825,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>19</v>
@@ -31899,7 +31899,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>19</v>
@@ -31973,10 +31973,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>26</v>
@@ -32047,7 +32047,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>19</v>
@@ -32121,7 +32121,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>19</v>
@@ -32195,7 +32195,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>19</v>
@@ -32269,7 +32269,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>19</v>
@@ -32343,7 +32343,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>19</v>
@@ -32417,13 +32417,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>90</v>
@@ -32491,7 +32491,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>19</v>
@@ -32565,7 +32565,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>19</v>
@@ -32639,10 +32639,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>26</v>
@@ -32713,7 +32713,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>106</v>
@@ -32787,7 +32787,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>102</v>
@@ -32861,10 +32861,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>49</v>
@@ -32935,7 +32935,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>19</v>
@@ -33009,7 +33009,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>19</v>
@@ -33083,7 +33083,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>52</v>
@@ -33157,7 +33157,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>57</v>
@@ -33231,7 +33231,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>19</v>
@@ -33305,10 +33305,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>47</v>
@@ -33379,7 +33379,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>19</v>
@@ -33453,10 +33453,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>79</v>
@@ -33527,7 +33527,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>19</v>
@@ -33601,10 +33601,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>47</v>
@@ -33675,7 +33675,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>19</v>
@@ -33749,7 +33749,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>19</v>
@@ -33823,7 +33823,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>19</v>
@@ -33897,7 +33897,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>19</v>
@@ -33971,13 +33971,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>30</v>
@@ -34045,7 +34045,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>19</v>
@@ -34119,7 +34119,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>60</v>
@@ -34193,13 +34193,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>58</v>
@@ -34267,7 +34267,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>60</v>
@@ -34341,7 +34341,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>19</v>
@@ -34415,10 +34415,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>79</v>
@@ -34489,7 +34489,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>19</v>
@@ -34563,10 +34563,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>26</v>
@@ -34637,7 +34637,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>102</v>
@@ -34711,7 +34711,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>19</v>
@@ -34785,7 +34785,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>19</v>
@@ -34859,7 +34859,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>19</v>
@@ -34868,7 +34868,7 @@
         <v>49</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F436" s="2">
         <v>24</v>
@@ -34933,7 +34933,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>19</v>
@@ -35007,10 +35007,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D438" s="2" t="s">
         <v>47</v>
@@ -35081,7 +35081,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>19</v>
@@ -35155,7 +35155,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>19</v>
@@ -35229,7 +35229,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>19</v>
@@ -35303,7 +35303,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>19</v>
@@ -35312,7 +35312,7 @@
         <v>47</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F442" s="2">
         <v>22</v>
@@ -35377,7 +35377,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>19</v>
@@ -35451,7 +35451,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>19</v>
@@ -35525,7 +35525,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>19</v>
@@ -35599,7 +35599,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>19</v>
@@ -35673,7 +35673,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>65</v>
@@ -35747,7 +35747,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>60</v>
@@ -35821,7 +35821,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>19</v>
@@ -35895,7 +35895,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>19</v>
@@ -35904,7 +35904,7 @@
         <v>20</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F450" s="2">
         <v>22</v>
@@ -35969,7 +35969,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>19</v>
@@ -36043,7 +36043,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>57</v>
@@ -36117,7 +36117,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>19</v>
@@ -36191,7 +36191,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>19</v>
@@ -36265,7 +36265,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>19</v>
@@ -36339,7 +36339,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>19</v>
@@ -36413,7 +36413,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>19</v>
@@ -36487,7 +36487,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>19</v>
@@ -36635,7 +36635,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>19</v>
@@ -36709,7 +36709,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>19</v>
@@ -36783,7 +36783,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>65</v>
@@ -36857,13 +36857,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>58</v>
@@ -36931,7 +36931,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>19</v>
@@ -37005,7 +37005,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>19</v>
@@ -37014,7 +37014,7 @@
         <v>26</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F465" s="2">
         <v>21</v>
@@ -37079,10 +37079,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>29</v>
@@ -37153,7 +37153,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>19</v>
@@ -37227,7 +37227,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>19</v>
@@ -37236,7 +37236,7 @@
         <v>26</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F468" s="2">
         <v>24</v>
@@ -37301,7 +37301,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>19</v>
@@ -37375,7 +37375,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>19</v>
@@ -37449,7 +37449,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>106</v>
@@ -37523,7 +37523,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>67</v>
@@ -37597,10 +37597,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>47</v>
@@ -37671,7 +37671,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>19</v>
@@ -37745,10 +37745,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D475" s="2" t="s">
         <v>49</v>
@@ -37819,7 +37819,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>67</v>
@@ -37893,7 +37893,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>19</v>
@@ -37967,7 +37967,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>19</v>
@@ -38041,7 +38041,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>19</v>
@@ -38050,7 +38050,7 @@
         <v>49</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F479" s="2">
         <v>21</v>
@@ -38115,10 +38115,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D480" s="2" t="s">
         <v>26</v>
@@ -38189,7 +38189,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>19</v>
@@ -38263,7 +38263,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>19</v>
@@ -38337,7 +38337,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>67</v>
@@ -38411,7 +38411,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>19</v>
@@ -38485,7 +38485,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>19</v>
@@ -38559,7 +38559,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>19</v>
@@ -38633,7 +38633,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>19</v>
@@ -38707,7 +38707,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>19</v>
@@ -38781,7 +38781,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>19</v>
@@ -38855,7 +38855,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>19</v>
@@ -38929,7 +38929,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>60</v>
@@ -39003,7 +39003,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>67</v>
@@ -39077,7 +39077,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>19</v>
@@ -39151,16 +39151,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F494" s="2">
         <v>19</v>
@@ -39225,7 +39225,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>19</v>
@@ -39299,7 +39299,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>19</v>
@@ -39373,7 +39373,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>57</v>
@@ -39447,7 +39447,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>19</v>
@@ -39521,7 +39521,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>19</v>
@@ -39595,7 +39595,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>19</v>
@@ -39604,7 +39604,7 @@
         <v>29</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F500" s="2">
         <v>18</v>
